--- a/BalanceSheet/WLTW_bal.xlsx
+++ b/BalanceSheet/WLTW_bal.xlsx
@@ -3822,7 +3822,7 @@
         <v>6008000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>5826000000.0</v>
+        <v>4730000000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>4998000000.0</v>
@@ -3949,7 +3949,7 @@
         <v>6939000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>6770000000.0</v>
+        <v>5617000000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>5865000000.0</v>
